--- a/FishLandings/household groups/statistics/VitaminA (ug)_output.xlsx
+++ b/FishLandings/household groups/statistics/VitaminA (ug)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>106143380.984658</v>
+        <v>147207041.707713</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>48.509731</v>
+        <v>71.10764899999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>15530776.874209</v>
+        <v>22751356.077136</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3.548944</v>
+        <v>5.494966</v>
       </c>
       <c r="E3">
-        <v>0.03039</v>
+        <v>0.00449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>487942795.675565</v>
+        <v>687306338.6878279</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-632.019392</v>
+        <v>-612.26325</v>
       </c>
       <c r="H5">
-        <v>-1278.047091</v>
+        <v>-1133.926428</v>
       </c>
       <c r="I5">
-        <v>14.008308</v>
+        <v>-90.600071</v>
       </c>
       <c r="J5">
-        <v>0.056696</v>
+        <v>0.016603</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-191.00834</v>
+        <v>-150.272569</v>
       </c>
       <c r="H6">
-        <v>-886.643385</v>
+        <v>-698.195769</v>
       </c>
       <c r="I6">
-        <v>504.626705</v>
+        <v>397.650632</v>
       </c>
       <c r="J6">
-        <v>0.793767</v>
+        <v>0.79494</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>441.011052</v>
+        <v>461.990681</v>
       </c>
       <c r="H7">
-        <v>-84.896277</v>
+        <v>49.98903</v>
       </c>
       <c r="I7">
-        <v>966.91838</v>
+        <v>873.992332</v>
       </c>
       <c r="J7">
-        <v>0.119883</v>
+        <v>0.023543</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/VitaminA (ug)_output.xlsx
+++ b/FishLandings/household groups/statistics/VitaminA (ug)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>147207041.707713</v>
+        <v>106143380.984658</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>71.10764899999999</v>
+        <v>48.509731</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>22751356.077136</v>
+        <v>15530776.874209</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5.494966</v>
+        <v>3.548944</v>
       </c>
       <c r="E3">
-        <v>0.00449</v>
+        <v>0.03039</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>687306338.6878279</v>
+        <v>487942795.675565</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-612.26325</v>
+        <v>-632.019392</v>
       </c>
       <c r="H5">
-        <v>-1133.926428</v>
+        <v>-1278.047091</v>
       </c>
       <c r="I5">
-        <v>-90.600071</v>
+        <v>14.008308</v>
       </c>
       <c r="J5">
-        <v>0.016603</v>
+        <v>0.056696</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-150.272569</v>
+        <v>-191.00834</v>
       </c>
       <c r="H6">
-        <v>-698.195769</v>
+        <v>-886.643385</v>
       </c>
       <c r="I6">
-        <v>397.650632</v>
+        <v>504.626705</v>
       </c>
       <c r="J6">
-        <v>0.79494</v>
+        <v>0.793767</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>461.990681</v>
+        <v>441.011052</v>
       </c>
       <c r="H7">
-        <v>49.98903</v>
+        <v>-84.896277</v>
       </c>
       <c r="I7">
-        <v>873.992332</v>
+        <v>966.91838</v>
       </c>
       <c r="J7">
-        <v>0.023543</v>
+        <v>0.119883</v>
       </c>
     </row>
   </sheetData>
